--- a/원신/02. Excel/원신_재화밸런스_분석.xlsx
+++ b/원신/02. Excel/원신_재화밸런스_분석.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\기획\원신\02. Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Atents\Documents\조성훈\원신\02. Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66DE1D3-298A-4B4C-8DDA-8D7CA0AB6AE3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2B169848-6571-4D9B-BBC6-ED93062C8F75}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="정리" sheetId="13" r:id="rId1"/>
@@ -30,7 +29,7 @@
     <sheet name="보물상자" sheetId="15" r:id="rId15"/>
     <sheet name="워프포인트 해방" sheetId="16" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -906,176 +905,176 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>총 28캐릭터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서풍 매의 사당</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>북풍 늑대의 사당</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남풍 사자의 사당</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매의 문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버림받은 폐허</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도원체류기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화정귀장 밀궁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나선비경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뒤얽힌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뒤얽힌 인연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창세의 결정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일회성 보상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반복성 보상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일일 임무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연월 나선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평범한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정교한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진귀한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화려한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 PLC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 PLC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3차 PLC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4차 PLC</t>
+  </si>
+  <si>
+    <t>5차 PLC</t>
+  </si>
+  <si>
+    <t>5성 전캐릭 셋트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">포인트 1당 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>워프포인트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일곱신상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4성 돌파 보너스 모두 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭무기 셋트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2캐릭무기 셋트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1덱 세트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2덱 세트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5성 돌파 보너스 제외 모든 만남의 인연 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공월 축복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월 정액 PLC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무 과금 PLC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1개 캐릭터당 3개의 만남의 인연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>총 28캐릭터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서풍 매의 사당</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>북풍 늑대의 사당</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>남풍 사자의 사당</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매의 문</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>버림받은 폐허</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도원체류기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화정귀장 밀궁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나선비경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>만남</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뒤얽힌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>총 합</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뒤얽힌 인연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>창세의 결정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일회성 보상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반복성 보상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일일 임무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연월 나선</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>평범한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정교한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>진귀한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화려한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 PLC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차 PLC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3차 PLC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4차 PLC</t>
-  </si>
-  <si>
-    <t>5차 PLC</t>
-  </si>
-  <si>
-    <t>5성 전캐릭 셋트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">포인트 1당 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>워프포인트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일곱신상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4성 돌파 보너스 모두 사용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭무기 셋트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2캐릭무기 셋트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1덱 세트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2덱 세트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5성 돌파 보너스 제외 모든 만남의 인연 사용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공월 축복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>월 정액 PLC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무 과금 PLC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;₩&quot;#,##0"/>
   </numFmts>
@@ -1190,10 +1189,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1203,15 +1211,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1526,10 +1525,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D2A7E9A-99C6-4DB6-9FC5-EDD9F79DAAC3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
@@ -1549,10 +1548,10 @@
         <v>215</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>231</v>
       </c>
       <c r="H1" s="2">
         <v>19</v>
@@ -1572,16 +1571,16 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="F6" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="F6" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -1596,7 +1595,7 @@
         <v>304988</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G7" s="2">
         <v>1800</v>
@@ -1619,7 +1618,7 @@
         <v>355680</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G8" s="2">
         <v>1200</v>
@@ -1631,7 +1630,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B9" s="2">
         <f>SUM('인동의 나무'!$C$2)</f>
@@ -1642,7 +1641,7 @@
         <v>6080</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G9" s="4">
         <f>SUM(G7:G8)</f>
@@ -1655,7 +1654,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3">
@@ -1664,20 +1663,20 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="12"/>
+      <c r="A15" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B16" s="2">
         <v>28800</v>
@@ -1686,7 +1685,7 @@
         <f>ROUNDUP(D16,0)</f>
         <v>5</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="9">
         <f>($B$16-$B$7)/$G$9</f>
         <v>4.2493333333333334</v>
       </c>
@@ -1695,14 +1694,14 @@
         <v>547200</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B17" s="2">
         <f>$B$16*2</f>
@@ -1712,7 +1711,7 @@
         <f>ROUNDUP(D17,0)</f>
         <v>20</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="9">
         <f>$B$17/$G$9</f>
         <v>19.2</v>
       </c>
@@ -1721,14 +1720,14 @@
         <v>1094400</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B18" s="2">
         <v>115200</v>
@@ -1737,7 +1736,7 @@
         <f>ROUNDUP(D18,0)</f>
         <v>39</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="9">
         <f>$B$18/$G$9</f>
         <v>38.4</v>
       </c>
@@ -1746,14 +1745,14 @@
         <v>2188800</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B19" s="2">
         <v>230400</v>
@@ -1762,7 +1761,7 @@
         <f>ROUNDUP(D19,0)</f>
         <v>77</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="9">
         <f>$B$19/$G$9</f>
         <v>76.8</v>
       </c>
@@ -1771,14 +1770,14 @@
         <v>4377600</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B20" s="2">
         <v>345600</v>
@@ -1787,7 +1786,7 @@
         <f>ROUNDUP(D20,0)</f>
         <v>116</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="9">
         <f>$B$20/$G$9</f>
         <v>115.2</v>
       </c>
@@ -1796,14 +1795,14 @@
         <v>6566400</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B24" s="2">
         <f>$B$16*2</f>
@@ -1819,15 +1818,15 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B25" s="2">
         <v>115200</v>
@@ -1842,22 +1841,22 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
+      <c r="A29" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B30" s="2">
         <v>1800</v>
@@ -1869,7 +1868,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B31" s="2">
         <v>1200</v>
@@ -1881,7 +1880,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B32" s="2">
         <v>3000</v>
@@ -1892,7 +1891,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B33" s="4">
         <f>SUM(B30:B32)</f>
@@ -1904,20 +1903,20 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
+      <c r="A35" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="B35" s="12"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B36" s="2">
         <v>28800</v>
@@ -1935,7 +1934,7 @@
         <v>547200</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -1943,7 +1942,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B37" s="2">
         <f>$B$16*2</f>
@@ -1962,7 +1961,7 @@
         <v>1094400</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
@@ -1970,7 +1969,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B38" s="2">
         <v>115200</v>
@@ -1988,7 +1987,7 @@
         <v>2188800</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
@@ -1996,7 +1995,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B39" s="2">
         <v>230400</v>
@@ -2014,7 +2013,7 @@
         <v>4377600</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -2022,7 +2021,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B40" s="2">
         <v>345600</v>
@@ -2040,7 +2039,7 @@
         <v>6566400</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
@@ -2061,7 +2060,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E177D19-4207-4D18-A9B2-3E685AD05BC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2075,7 +2074,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -2083,7 +2082,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B2" s="2">
         <v>40</v>
@@ -2091,7 +2090,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B3" s="2">
         <v>40</v>
@@ -2099,7 +2098,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B4" s="2">
         <v>40</v>
@@ -2107,7 +2106,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B5" s="2">
         <v>40</v>
@@ -2115,7 +2114,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B6" s="2">
         <v>40</v>
@@ -2123,7 +2122,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B7" s="2">
         <v>40</v>
@@ -2131,7 +2130,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B8" s="2">
         <v>80</v>
@@ -2139,7 +2138,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B9" s="2">
         <v>2400</v>
@@ -2147,7 +2146,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B11" s="2">
         <f>SUM(B2:B9)</f>
@@ -2161,7 +2160,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76925D32-0DB8-461F-895A-5CBD60AA20FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2269,7 +2268,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B11" s="2">
         <f>SUM(B2:B10)</f>
@@ -2287,7 +2286,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43414895-4952-4F29-B442-6700C96E3583}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2306,7 +2305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F99390A-E938-42E8-B94F-581E8D129FEF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2318,10 +2317,10 @@
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -2340,7 +2339,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA053826-904E-4061-AA2F-3E3D297BC662}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2361,10 +2360,10 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E7A5D4-C9BA-4AB0-AF86-919EE55E55BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -2377,18 +2376,18 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="B2" s="6">
+        <v>235</v>
+      </c>
+      <c r="B2" s="10">
         <v>1232</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B3" s="6"/>
+        <v>236</v>
+      </c>
+      <c r="B3" s="10"/>
       <c r="C3" s="2">
         <f>B2*2.5</f>
         <v>3080</v>
@@ -2396,7 +2395,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B4" s="2">
         <v>258</v>
@@ -2408,7 +2407,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B5" s="2">
         <v>50</v>
@@ -2420,7 +2419,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B6" s="2">
         <f>SUM(B2:B5)</f>
@@ -2442,18 +2441,21 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF293BCF-91E5-445F-9944-968709C4D86D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B1">
         <v>5</v>
@@ -2461,7 +2463,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B3">
         <v>73</v>
@@ -2473,7 +2475,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B4">
         <v>9</v>
@@ -2497,7 +2499,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EEE4F43-4719-4767-91A5-DDCB9C65B1F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C174"/>
   <sheetViews>
     <sheetView topLeftCell="A136" workbookViewId="0">
@@ -4096,7 +4098,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" s="2">
@@ -4112,7 +4114,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F47FF76-D8CB-4F4E-850F-32EF59539E80}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4162,7 +4164,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B6" s="2">
         <f>SUM(B2:B4)</f>
@@ -4179,7 +4181,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D1C2C18-3CA8-4995-8037-48F425B4B955}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4329,7 +4331,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B19" s="2">
         <f>SUM(B2:B17)</f>
@@ -4343,7 +4345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EF13FFA-6552-40CF-95CA-2AB786F7EA26}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4387,7 +4389,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B6" s="2">
         <f>SUM(B2:B4)</f>
@@ -4401,7 +4403,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{043B139A-B1A3-4CDE-BB95-934FA46CE15D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
@@ -4902,7 +4904,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B62" s="2">
         <f>SUM(B2:B61)</f>
@@ -4920,7 +4922,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE551C4-B15D-4701-96BF-90C39FD289A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4987,7 +4989,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B6" s="2">
         <f>SUM(B2:B5)</f>
@@ -5005,28 +5007,28 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCAB22E9-E082-4BE2-AC1C-6923ED0F57BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B4">
         <f>28*3</f>
@@ -5043,7 +5045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F274D7F9-11D1-4FB1-8ED8-8058C73B2A64}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
